--- a/api/benchmark_results.xlsx
+++ b/api/benchmark_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,15 +491,10 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>LLaMA Verdict</t>
+          <t>Qwen Verdict</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Qwen Verdict</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Final Verdict</t>
         </is>
@@ -523,7 +518,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>In 1858, who is said to have witnessed an apparition of the Virgin Mary in Lourdes, France?</t>
+          <t>Who is the person that the Virgin Mary was said to have appeared to in 1858 in Lourdes, France?</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -533,7 +528,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>In 1858, who is reported to have witnessed an apparition of the Virgin Mary in Lourdes, France?</t>
+          <t>Which individual is claimed to have encountered the Virgin Mary at Lourdes in the year 1858?</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -543,35 +538,30 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>Basic</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Basic</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>Enhanced</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Enhanced</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>enhanced</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="M2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
         <is>
           <t>Enhanced</t>
         </is>

--- a/api/benchmark_results.xlsx
+++ b/api/benchmark_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,12 +456,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Enhanced Question</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Basic Answer</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Enhanced Question</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -503,37 +503,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Architecturally, the school has a Catholic character. Atop the Main Building's gold dome is a golden statue of the Virgin Mary. Immediately in front of the Main Building and facing it, is a copper statue of Christ with arms upraised with the legend "Venite Ad Me Omnes". Next to the Main Building is the Basilica of the Sacred Heart. Immediately behind the basilica is the Grotto, a Marian place of prayer and reflection. It is a replica of the grotto at Lourdes, France where the Virgin Mary reputedly appeared to Saint Bernadette Soubirous in 1858. At the end of the main drive (and in a direct line that connects through 3 statues and the Gold Dome), is a simple, modern stone statue of Mary.</t>
+          <t>Father Joseph Carrier, C.S.C. was Director of the Science Museum and the Library and Professor of Chemistry and Physics until 1874. Carrier taught that scientific research and its promise for progress were not antagonistic to the ideals of intellectual and moral culture endorsed by the Church. One of Carrier's students was Father John Augustine Zahm (1851–1921) who was made Professor and Co-Director of the Science Department at age 23 and by 1900 was a nationally prominent scientist and naturalist. Zahm was active in the Catholic Summer School movement, which introduced Catholic laity to contemporary intellectual issues. His book Evolution and Dogma (1896) defended certain aspects of evolutionary theory as true, and argued, moreover, that even the great Church teachers Thomas Aquinas and Augustine taught something like it. The intervention of Irish American Catholics in Rome prevented Zahm's censure by the Vatican. In 1913, Zahm and former President Theodore Roosevelt embarked on a major expedition through the Amazon.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>To whom did the Virgin Mary allegedly appear in 1858 in Lourdes France?</t>
+          <t>What book did John Zahm write in 1896?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Saint Bernadette Soubirous</t>
+          <t>Evolution and Dogma</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Who is the person that the Virgin Mary was said to have appeared to in 1858 in Lourdes, France?</t>
+          <t>Which publication did John Zahm author in 1896 addressing evolutionary theory?</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Saint Bernadette Soubirous</t>
+          <t>What is the title of the book John Zahm authored in 1896 that addresses topics related to evolutionary theory?</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Which individual is claimed to have encountered the Virgin Mary at Lourdes in the year 1858?</t>
+          <t>Evolution and Dogma</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Saint Bernadette Soubirous</t>
+          <t>Evolution and Dogma</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -548,20 +548,1293 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>Basic</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Father Joseph Carrier, C.S.C. was Director of the Science Museum and the Library and Professor of Chemistry and Physics until 1874. Carrier taught that scientific research and its promise for progress were not antagonistic to the ideals of intellectual and moral culture endorsed by the Church. One of Carrier's students was Father John Augustine Zahm (1851–1921) who was made Professor and Co-Director of the Science Department at age 23 and by 1900 was a nationally prominent scientist and naturalist. Zahm was active in the Catholic Summer School movement, which introduced Catholic laity to contemporary intellectual issues. His book Evolution and Dogma (1896) defended certain aspects of evolutionary theory as true, and argued, moreover, that even the great Church teachers Thomas Aquinas and Augustine taught something like it. The intervention of Irish American Catholics in Rome prevented Zahm's censure by the Vatican. In 1913, Zahm and former President Theodore Roosevelt embarked on a major expedition through the Amazon.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>What professorship did Father Josh Carrier hold at Notre Dame?</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Professor of Chemistry and Physics</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>What academic role did Father Joseph Carrier occupy at Notre Dame related to chemistry and physics?</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>In which disciplines did Father Joseph Carrier serve as a professor during his tenure at Notre Dame?</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Father Joseph Carrier was a Professor of Chemistry and Physics.</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Chemistry and Physics.</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Basic</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Enhanced</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Basic</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>In 1882, Albert Zahm (John Zahm's brother) built an early wind tunnel used to compare lift to drag of aeronautical models. Around 1899, Professor Jerome Green became the first American to send a wireless message. In 1931, Father Julius Nieuwland performed early work on basic reactions that was used to create neoprene. Study of nuclear physics at the university began with the building of a nuclear accelerator in 1936, and continues now partly through a partnership in the Joint Institute for Nuclear Astrophysics.</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>In what year did Albert Zahm begin comparing aeronatical models at Notre Dame?</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1882</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>When did Albert Zahm start utilizing a wind tunnel for comparing aeronautical models?</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>What year marks the beginning of Albert Zahm's aeronautical research at Notre Dame with the construction of a wind tunnel?</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1882</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1882</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>In 1882, Albert Zahm (John Zahm's brother) built an early wind tunnel used to compare lift to drag of aeronautical models. Around 1899, Professor Jerome Green became the first American to send a wireless message. In 1931, Father Julius Nieuwland performed early work on basic reactions that was used to create neoprene. Study of nuclear physics at the university began with the building of a nuclear accelerator in 1936, and continues now partly through a partnership in the Joint Institute for Nuclear Astrophysics.</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Which professor sent the first wireless message in the USA?</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Professor Jerome Green</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Who was the first American academic to transmit a wireless message?</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Who achieved the milestone of being the first in the USA to transmit a wireless message as a professor?</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Jerome Green</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Professor Jerome Green</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Basic</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>In 1882, Albert Zahm (John Zahm's brother) built an early wind tunnel used to compare lift to drag of aeronautical models. Around 1899, Professor Jerome Green became the first American to send a wireless message. In 1931, Father Julius Nieuwland performed early work on basic reactions that was used to create neoprene. Study of nuclear physics at the university began with the building of a nuclear accelerator in 1936, and continues now partly through a partnership in the Joint Institute for Nuclear Astrophysics.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>In what year did Jerome Green send his first wireless message?</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Around 1899</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>When did Professor Jerome Green become the first American to transmit a wireless signal?</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>When did Professor Jerome Green first transmit a message without wires?</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Around 1899.</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1899</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Basic</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Basic</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>In 1882, Albert Zahm (John Zahm's brother) built an early wind tunnel used to compare lift to drag of aeronautical models. Around 1899, Professor Jerome Green became the first American to send a wireless message. In 1931, Father Julius Nieuwland performed early work on basic reactions that was used to create neoprene. Study of nuclear physics at the university began with the building of a nuclear accelerator in 1936, and continues now partly through a partnership in the Joint Institute for Nuclear Astrophysics.</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Which individual worked on projects at Notre Dame that eventually created neoprene?</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Father Julius Nieuwland</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Who was responsible for conducting research at Notre Dame that led to the development of neoprene?</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Who was the Notre Dame scientist involved in the foundational research that led to the development of neoprene?</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Father Julius Nieuwland</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Father Julius Nieuwland</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>In 1882, Albert Zahm (John Zahm's brother) built an early wind tunnel used to compare lift to drag of aeronautical models. Around 1899, Professor Jerome Green became the first American to send a wireless message. In 1931, Father Julius Nieuwland performed early work on basic reactions that was used to create neoprene. Study of nuclear physics at the university began with the building of a nuclear accelerator in 1936, and continues now partly through a partnership in the Joint Institute for Nuclear Astrophysics.</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>What did the brother of John Zahm construct at Notre Dame?</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>an early wind tunnel</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>What did Albert Zahm build in 1882 at Notre Dame?</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>What structure did Albert Zahm develop in 1882 at Notre Dame related to flight studies?</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>An early wind tunnel.</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>An early wind tunnel.</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Basic</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>The Lobund Institute grew out of pioneering research in germ-free-life which began in 1928. This area of research originated in a question posed by Pasteur as to whether animal life was possible without bacteria. Though others had taken up this idea, their research was short lived and inconclusive. Lobund was the first research organization to answer definitively, that such life is possible and that it can be prolonged through generations. But the objective was not merely to answer Pasteur's question but also to produce the germ free animal as a new tool for biological and medical research. This objective was reached and for years Lobund was a unique center for the study and production of germ free animals and for their use in biological and medical investigations. Today the work has spread to other universities. In the beginning it was under the Department of Biology and a program leading to the master's degree accompanied the research program. In the 1940s Lobund achieved independent status as a purely research organization and in 1950 was raised to the status of an Institute. In 1958 it was brought back into the Department of Biology as integral part of that department, but with its own program leading to the degree of PhD in Gnotobiotics.</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Work on a germ-free-life ended up in the creation of which Notre Dame institute?</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>The Lobund Institute</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Which institute at Notre Dame was established due to advancements in germ-free-life research?</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Which institute at Notre Dame originated from research into germ-free living?</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>The Lobund Institute.</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>The Lobund Institute.</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>The Lobund Institute grew out of pioneering research in germ-free-life which began in 1928. This area of research originated in a question posed by Pasteur as to whether animal life was possible without bacteria. Though others had taken up this idea, their research was short lived and inconclusive. Lobund was the first research organization to answer definitively, that such life is possible and that it can be prolonged through generations. But the objective was not merely to answer Pasteur's question but also to produce the germ free animal as a new tool for biological and medical research. This objective was reached and for years Lobund was a unique center for the study and production of germ free animals and for their use in biological and medical investigations. Today the work has spread to other universities. In the beginning it was under the Department of Biology and a program leading to the master's degree accompanied the research program. In the 1940s Lobund achieved independent status as a purely research organization and in 1950 was raised to the status of an Institute. In 1958 it was brought back into the Department of Biology as integral part of that department, but with its own program leading to the degree of PhD in Gnotobiotics.</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Around what time did Lobund of Notre Dame become independent?</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>the 1940s</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>In which decade did Lobund at Notre Dame gain independence as a separate research organization?</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>When did Lobund of Notre Dame achieve independent status as a research organization?</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1940s</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1940s</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>The Lobund Institute grew out of pioneering research in germ-free-life which began in 1928. This area of research originated in a question posed by Pasteur as to whether animal life was possible without bacteria. Though others had taken up this idea, their research was short lived and inconclusive. Lobund was the first research organization to answer definitively, that such life is possible and that it can be prolonged through generations. But the objective was not merely to answer Pasteur's question but also to produce the germ free animal as a new tool for biological and medical research. This objective was reached and for years Lobund was a unique center for the study and production of germ free animals and for their use in biological and medical investigations. Today the work has spread to other universities. In the beginning it was under the Department of Biology and a program leading to the master's degree accompanied the research program. In the 1940s Lobund achieved independent status as a purely research organization and in 1950 was raised to the status of an Institute. In 1958 it was brought back into the Department of Biology as integral part of that department, but with its own program leading to the degree of PhD in Gnotobiotics.</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>In what year did Lobund at Notre Dame become an Institute?</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>When was Lobund elevated to the status of an Institute at Notre Dame?</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>What year marks the elevation of Lobund to Institute status at Notre Dame?</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Basic</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>The Lobund Institute grew out of pioneering research in germ-free-life which began in 1928. This area of research originated in a question posed by Pasteur as to whether animal life was possible without bacteria. Though others had taken up this idea, their research was short lived and inconclusive. Lobund was the first research organization to answer definitively, that such life is possible and that it can be prolonged through generations. But the objective was not merely to answer Pasteur's question but also to produce the germ free animal as a new tool for biological and medical research. This objective was reached and for years Lobund was a unique center for the study and production of germ free animals and for their use in biological and medical investigations. Today the work has spread to other universities. In the beginning it was under the Department of Biology and a program leading to the master's degree accompanied the research program. In the 1940s Lobund achieved independent status as a purely research organization and in 1950 was raised to the status of an Institute. In 1958 it was brought back into the Department of Biology as integral part of that department, but with its own program leading to the degree of PhD in Gnotobiotics.</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>The Lobund Institute was merged into the Department of Biology at Notre Dame in what year?</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1958</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>In which year was the Lobund Institute reintegrated into the Department of Biology?</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>In which year did the Lobund Institute become part of Notre Dame's Department of Biology again?</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1958</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1958</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Basic</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>The Lobund Institute grew out of pioneering research in germ-free-life which began in 1928. This area of research originated in a question posed by Pasteur as to whether animal life was possible without bacteria. Though others had taken up this idea, their research was short lived and inconclusive. Lobund was the first research organization to answer definitively, that such life is possible and that it can be prolonged through generations. But the objective was not merely to answer Pasteur's question but also to produce the germ free animal as a new tool for biological and medical research. This objective was reached and for years Lobund was a unique center for the study and production of germ free animals and for their use in biological and medical investigations. Today the work has spread to other universities. In the beginning it was under the Department of Biology and a program leading to the master's degree accompanied the research program. In the 1940s Lobund achieved independent status as a purely research organization and in 1950 was raised to the status of an Institute. In 1958 it was brought back into the Department of Biology as integral part of that department, but with its own program leading to the degree of PhD in Gnotobiotics.</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>When did study of a germ-free-life begin at Notre Dame?</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1928</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>What year marked the onset of research into germ-free life at Notre Dame?</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>In which year did Notre Dame's investigation into germ-free life originate?</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1928</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1928</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Basic</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>The Review of Politics was founded in 1939 by Gurian, modeled after German Catholic journals. It quickly emerged as part of an international Catholic intellectual revival, offering an alternative vision to positivist philosophy. For 44 years, the Review was edited by Gurian, Matthew Fitzsimons, Frederick Crosson, and Thomas Stritch. Intellectual leaders included Gurian, Jacques Maritain, Frank O'Malley, Leo Richard Ward, F. A. Hermens, and John U. Nef. It became a major forum for political ideas and modern political concerns, especially from a Catholic and scholastic tradition.</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Gurian created what in 1939 at Notre Dame?</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>The Review of Politics</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">What journal did Gurian establish at Notre Dame in 1939? </t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>What did Gurian establish at the University of Notre Dame in 1939?</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>The Review of Politics.</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Gurian established The Review of Politics at the University of Notre Dame in 1939.</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Basic</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>The Review of Politics was founded in 1939 by Gurian, modeled after German Catholic journals. It quickly emerged as part of an international Catholic intellectual revival, offering an alternative vision to positivist philosophy. For 44 years, the Review was edited by Gurian, Matthew Fitzsimons, Frederick Crosson, and Thomas Stritch. Intellectual leaders included Gurian, Jacques Maritain, Frank O'Malley, Leo Richard Ward, F. A. Hermens, and John U. Nef. It became a major forum for political ideas and modern political concerns, especially from a Catholic and scholastic tradition.</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>What was the Review of Politics inspired by?</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>German Catholic journals</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>What was the inspiration behind the founding of The Review of Politics?</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>What served as the inspiration for the founding model of the Review of Politics?</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>The Review of Politics was inspired by German Catholic journals.</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>German Catholic journals.</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Basic</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Basic</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Basic</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Basic</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>The Review of Politics was founded in 1939 by Gurian, modeled after German Catholic journals. It quickly emerged as part of an international Catholic intellectual revival, offering an alternative vision to positivist philosophy. For 44 years, the Review was edited by Gurian, Matthew Fitzsimons, Frederick Crosson, and Thomas Stritch. Intellectual leaders included Gurian, Jacques Maritain, Frank O'Malley, Leo Richard Ward, F. A. Hermens, and John U. Nef. It became a major forum for political ideas and modern political concerns, especially from a Catholic and scholastic tradition.</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Over how many years did Gurian edit the Review of Politics at Notre Dame?</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>For how many years did the editing responsibilities of the Review of Politics include Gurian at Notre Dame?</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>What was the length of time for which Gurian was in the editorial role for the Review of Politics at Notre Dame?</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>44 years</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>44 years</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Basic</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>The Review of Politics was founded in 1939 by Gurian, modeled after German Catholic journals. It quickly emerged as part of an international Catholic intellectual revival, offering an alternative vision to positivist philosophy. For 44 years, the Review was edited by Gurian, Matthew Fitzsimons, Frederick Crosson, and Thomas Stritch. Intellectual leaders included Gurian, Jacques Maritain, Frank O'Malley, Leo Richard Ward, F. A. Hermens, and John U. Nef. It became a major forum for political ideas and modern political concerns, especially from a Catholic and scholastic tradition.</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Thomas Stritch was an editor of which publican from Notre Dame?</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Review of Politics</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Which publication from Notre Dame was edited by Thomas Stritch?</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>What is the name of the Notre Dame publication that Thomas Stritch edited, which was known for its Catholic political discourse?</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>The Review of Politics</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>The Review of Politics</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>As of 2012[update] research continued in many fields. The university president, John Jenkins, described his hope that Notre Dame would become "one of the pre–eminent research institutions in the world" in his inaugural address. The university has many multi-disciplinary institutes devoted to research in varying fields, including the Medieval Institute, the Kellogg Institute for International Studies, the Kroc Institute for International Peace studies, and the Center for Social Concerns. Recent research includes work on family conflict and child development, genome mapping, the increasing trade deficit of the United States with China, studies in fluid mechanics, computational science and engineering, and marketing trends on the Internet. As of 2013, the university is home to the Notre Dame Global Adaptation Index which ranks countries annually based on how vulnerable they are to climate change and how prepared they are to adapt.</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Who was the president of Notre Dame in 2012?</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>John Jenkins</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Who held the position of Notre Dame's president in the year 2012?</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>In 2012, who was the president of the University of Notre Dame?</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>John Jenkins</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>John Jenkins</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>As of 2012[update] research continued in many fields. The university president, John Jenkins, described his hope that Notre Dame would become "one of the pre–eminent research institutions in the world" in his inaugural address. The university has many multi-disciplinary institutes devoted to research in varying fields, including the Medieval Institute, the Kellogg Institute for International Studies, the Kroc Institute for International Peace studies, and the Center for Social Concerns. Recent research includes work on family conflict and child development, genome mapping, the increasing trade deficit of the United States with China, studies in fluid mechanics, computational science and engineering, and marketing trends on the Internet. As of 2013, the university is home to the Notre Dame Global Adaptation Index which ranks countries annually based on how vulnerable they are to climate change and how prepared they are to adapt.</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>The Kellogg Institute for International Studies is part of which university?</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Notre Dame</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Which university houses the Kellogg Institute for International Studies?</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>At which university is the Kellogg Institute for International Studies located?</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Notre Dame University</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>University of Notre Dame</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>As of 2012[update] research continued in many fields. The university president, John Jenkins, described his hope that Notre Dame would become "one of the pre–eminent research institutions in the world" in his inaugural address. The university has many multi-disciplinary institutes devoted to research in varying fields, including the Medieval Institute, the Kellogg Institute for International Studies, the Kroc Institute for International Peace studies, and the Center for Social Concerns. Recent research includes work on family conflict and child development, genome mapping, the increasing trade deficit of the United States with China, studies in fluid mechanics, computational science and engineering, and marketing trends on the Internet. As of 2013, the university is home to the Notre Dame Global Adaptation Index which ranks countries annually based on how vulnerable they are to climate change and how prepared they are to adapt.</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>What does the Kroc Institute at Notre Dame focus on?</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>International Peace studies</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>What is the main area of research for the Kroc Institute at Notre Dame?</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>What is the primary focus area of the Kroc Institute at Notre Dame?</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>International Peace Studies.</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>International Peace studies.</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>As of 2012[update] research continued in many fields. The university president, John Jenkins, described his hope that Notre Dame would become "one of the pre–eminent research institutions in the world" in his inaugural address. The university has many multi-disciplinary institutes devoted to research in varying fields, including the Medieval Institute, the Kellogg Institute for International Studies, the Kroc Institute for International Peace studies, and the Center for Social Concerns. Recent research includes work on family conflict and child development, genome mapping, the increasing trade deficit of the United States with China, studies in fluid mechanics, computational science and engineering, and marketing trends on the Internet. As of 2013, the university is home to the Notre Dame Global Adaptation Index which ranks countries annually based on how vulnerable they are to climate change and how prepared they are to adapt.</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>In what year did Notre Dame begin to host the Global Adaptation Index?</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>When did Notre Dame start being the home of the Global Adaptation Index?</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>When did the Global Adaptation Index start being hosted by Notre Dame University?</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>As of 2013.</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Enhanced</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>Enhanced</t>
         </is>
